--- a/optimal_cumulative_points.xlsx
+++ b/optimal_cumulative_points.xlsx
@@ -256,7 +256,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
